--- a/estructurasDatosAlcarazGomezPerez.xlsx
+++ b/estructurasDatosAlcarazGomezPerez.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julian\Desktop\facu\WEB\Introduccion a la Programacion\tpFInal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\wordix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9FB983-3105-480E-AC8A-3D4F1146A07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ABA0A2-CBA8-4832-A0A6-F6AEFF3BDE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="7590" windowWidth="15375" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EstructuraDatos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t>$coleccionPalabras=</t>
   </si>
@@ -244,13 +244,22 @@
   </si>
   <si>
     <t>https://github.com/Julian-Alcaraz/wordix</t>
+  </si>
+  <si>
+    <t>FAI-4381</t>
+  </si>
+  <si>
+    <t>gzg95-@hotmail.es</t>
+  </si>
+  <si>
+    <t>GonzaGomez9522</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +330,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -417,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -464,17 +481,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -486,6 +493,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -705,7 +723,7 @@
   <dimension ref="A1:L1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -721,17 +739,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="22" t="s">
         <v>69</v>
       </c>
     </row>
@@ -742,7 +760,7 @@
       <c r="B2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="25"/>
@@ -754,10 +772,16 @@
       <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>74</v>
+      </c>
       <c r="D3" s="25"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -769,18 +793,19 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -970,45 +995,45 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
@@ -1110,44 +1135,44 @@
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1296,44 +1321,44 @@
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2302,11 +2327,6 @@
     <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
@@ -2319,12 +2339,18 @@
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="B42:G42"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{2425695A-BD2A-4DF4-843E-258B2D3C7CCC}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{83005F39-49DA-49D7-89B9-2FC0B406046D}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{CDDB5A65-D0B5-4F6B-9B66-87DB83E67E27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/estructurasDatosAlcarazGomezPerez.xlsx
+++ b/estructurasDatosAlcarazGomezPerez.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\wordix\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ABA0A2-CBA8-4832-A0A6-F6AEFF3BDE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="EstructuraDatos" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>$coleccionPalabras=</t>
   </si>
@@ -253,12 +247,21 @@
   </si>
   <si>
     <t>GonzaGomez9522</t>
+  </si>
+  <si>
+    <t>FAI-3126</t>
+  </si>
+  <si>
+    <t>morienacata@gmail.com</t>
+  </si>
+  <si>
+    <t>catamoriena</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,6 +493,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,11 +507,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -719,11 +722,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -745,10 +748,10 @@
       <c r="B1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="22" t="s">
         <v>69</v>
       </c>
@@ -760,10 +763,10 @@
       <c r="B2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="7" t="s">
         <v>70</v>
       </c>
@@ -775,10 +778,10 @@
       <c r="B3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="7" t="s">
         <v>75</v>
       </c>
@@ -787,10 +790,16 @@
       <c r="A4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="20"/>
@@ -800,12 +809,12 @@
       <c r="A6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -926,6 +935,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -995,45 +1005,45 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
@@ -1135,44 +1145,44 @@
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1321,44 +1331,44 @@
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2327,6 +2337,11 @@
     <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
@@ -2339,18 +2354,14 @@
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="B42:G42"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{2425695A-BD2A-4DF4-843E-258B2D3C7CCC}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{83005F39-49DA-49D7-89B9-2FC0B406046D}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{CDDB5A65-D0B5-4F6B-9B66-87DB83E67E27}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>